--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668204402ae1e1d5/python projects/Tg bot expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668204402ae1e1d5/python projects/Forecasting_expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FEA5A394-4C4A-4C48-9976-1963255149CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F814DE36-FE99-4C91-B1C0-64B3E9F04FD8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{FEA5A394-4C4A-4C48-9976-1963255149CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1109EEC2-E899-467B-AEB2-95583AE7A49D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{A782D84E-87DE-445E-B017-A4192B0E39FF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="34">
   <si>
     <t>groceries</t>
   </si>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE63D89-A879-41E2-ABB0-ECADE80D4C67}">
   <dimension ref="A1:C3994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3918" workbookViewId="0">
-      <selection activeCell="C3967" sqref="A3967:C3967"/>
+    <sheetView tabSelected="1" topLeftCell="A3924" workbookViewId="0">
+      <selection activeCell="D3968" sqref="D3968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44171,14 +44171,26 @@
       </c>
     </row>
     <row r="3967" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3967" s="1"/>
-      <c r="B3967" s="2"/>
-      <c r="C3967" s="4"/>
+      <c r="A3967" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B3967" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3967" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="3968" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3968" s="1"/>
-      <c r="B3968" s="2"/>
-      <c r="C3968" s="4"/>
+      <c r="A3968" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B3968" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3968" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="3969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3969" s="4"/>
